--- a/Data_processed/regional/europe_consolidated.xlsx
+++ b/Data_processed/regional/europe_consolidated.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/regional/europe_consolidated.xlsx
+++ b/Data_processed/regional/europe_consolidated.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/regional/europe_consolidated.xlsx
+++ b/Data_processed/regional/europe_consolidated.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.021535683556</v>
+        <v>0.09036232000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09036232000000001</v>
+        <v>2.3742164</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3742164</v>
+        <v>2.5195412e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.00629938183</v>
+        <v>0.03107709733333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03107709733333333</v>
+        <v>1.4455487</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4455487</v>
+        <v>8.6651194e-07</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.021375124544</v>
+        <v>0.05723871466666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05723871466666667</v>
+        <v>2.4442961</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4442961</v>
+        <v>1.5959672e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.034728877451</v>
+        <v>0.1480001466666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1480001466666667</v>
+        <v>2.8515386</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8515386</v>
+        <v>4.1266368e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.01229157086</v>
+        <v>0.06863096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06863096</v>
+        <v>1.8495547</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8495547</v>
+        <v>1.9136132e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.035550547874</v>
+        <v>0.1813101466666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1813101466666667</v>
+        <v>2.6843831</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6843831</v>
+        <v>5.0554081e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.031721041758</v>
+        <v>0.1298293533333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1298293533333333</v>
+        <v>3.0127676</v>
       </c>
       <c r="F8" t="n">
-        <v>3.0127676</v>
+        <v>3.6199868e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.00872188755</v>
+        <v>0.03944384733333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03944384733333333</v>
+        <v>1.8296605</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8296605</v>
+        <v>1.0997991e-06</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.04020510830100001</v>
+        <v>0.21448576</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21448576</v>
+        <v>2.7504609</v>
       </c>
       <c r="F10" t="n">
-        <v>2.7504609</v>
+        <v>5.9804321e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.016213325982</v>
+        <v>0.02099626733333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02099626733333333</v>
+        <v>2.401601</v>
       </c>
       <c r="F11" t="n">
-        <v>2.401601</v>
+        <v>5.8543165e-07</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.02248047242499999</v>
+        <v>0.02741435933333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02741435933333334</v>
+        <v>2.6755028</v>
       </c>
       <c r="F12" t="n">
-        <v>2.6755028</v>
+        <v>7.6438509e-07</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.02094202647</v>
+        <v>0.1203623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1203623</v>
+        <v>2.1443629</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1443629</v>
+        <v>3.3560203e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.02331817607</v>
+        <v>0.13845878</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13845878</v>
+        <v>1.9366547</v>
       </c>
       <c r="F14" t="n">
-        <v>1.9366547</v>
+        <v>3.8605982e-06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.025211999131</v>
+        <v>0.07137552666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07137552666666667</v>
+        <v>2.8066416</v>
       </c>
       <c r="F15" t="n">
-        <v>2.8066416</v>
+        <v>1.990139e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.02025011788</v>
+        <v>0.1172330666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1172330666666667</v>
+        <v>1.9709216</v>
       </c>
       <c r="F16" t="n">
-        <v>1.9709216</v>
+        <v>3.268769e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.019921270302</v>
+        <v>0.1121204533333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1121204533333333</v>
+        <v>2.0707889</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0707889</v>
+        <v>3.1262157e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.00705060215</v>
+        <v>0.03249447533333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03249447533333333</v>
+        <v>1.7006174</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7006174</v>
+        <v>9.0603219e-07</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0113294151</v>
+        <v>0.05036927333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05036927333333333</v>
+        <v>2.1471053</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1471053</v>
+        <v>1.404429e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.006821520919999999</v>
+        <v>0.02462744933333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02462744933333333</v>
+        <v>1.852289</v>
       </c>
       <c r="F20" t="n">
-        <v>1.852289</v>
+        <v>6.8667864e-07</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.023474183901</v>
+        <v>0.13670032</v>
       </c>
       <c r="E21" t="n">
-        <v>0.13670032</v>
+        <v>2.0785569</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0785569</v>
+        <v>3.8115676e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.02014090473</v>
+        <v>0.11035054</v>
       </c>
       <c r="E22" t="n">
-        <v>0.11035054</v>
+        <v>2.005956</v>
       </c>
       <c r="F22" t="n">
-        <v>2.005956</v>
+        <v>3.0768659e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.001082339445</v>
+        <v>0.005043350733333334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005043350733333334</v>
+        <v>1.0939095</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0939095</v>
+        <v>1.40622e-07</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.035226603427</v>
+        <v>0.2202320466666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2202320466666667</v>
+        <v>2.6961757</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6961757</v>
+        <v>6.1406538e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01238209566</v>
+        <v>0.06686027333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06686027333333334</v>
+        <v>1.7382129</v>
       </c>
       <c r="F25" t="n">
-        <v>1.7382129</v>
+        <v>1.8642419e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.020246889888</v>
+        <v>0.09003700666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09003700666666667</v>
+        <v>2.1456263</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1456263</v>
+        <v>2.5104706e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.022313579268</v>
+        <v>0.03378822066666667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03378822066666667</v>
+        <v>2.7030978</v>
       </c>
       <c r="F27" t="n">
-        <v>2.7030978</v>
+        <v>9.4210525e-07</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.020583675959</v>
+        <v>0.06658379800000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06658379800000001</v>
+        <v>2.3856856</v>
       </c>
       <c r="F28" t="n">
-        <v>2.3856856</v>
+        <v>1.856533e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.017953057843</v>
+        <v>0.0686155</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0686155</v>
+        <v>2.0807151</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0807151</v>
+        <v>1.9131821e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.009503350899999999</v>
+        <v>0.004736821266666667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004736821266666667</v>
+        <v>1.8870837</v>
       </c>
       <c r="F30" t="n">
-        <v>1.8870837</v>
+        <v>1.3207515e-07</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.01875186434</v>
+        <v>0.08015411333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08015411333333333</v>
+        <v>2.2812274</v>
       </c>
       <c r="F31" t="n">
-        <v>2.2812274</v>
+        <v>2.2349093e-06</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.011108851188</v>
+        <v>0.0076175</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0076175</v>
+        <v>1.9316097</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9316097</v>
+        <v>2.1239612e-07</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.021535683556</v>
+        <v>0.09036232000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09036232000000001</v>
+        <v>2.3742164</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3742164</v>
+        <v>2.5195412e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.00629938183</v>
+        <v>0.03107709733333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03107709733333333</v>
+        <v>1.4455487</v>
       </c>
       <c r="F34" t="n">
-        <v>1.4455487</v>
+        <v>8.6651194e-07</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.021375124544</v>
+        <v>0.05723871466666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05723871466666667</v>
+        <v>2.4442961</v>
       </c>
       <c r="F35" t="n">
-        <v>2.4442961</v>
+        <v>1.5959672e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.034728877451</v>
+        <v>0.1480001466666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1480001466666667</v>
+        <v>2.8515386</v>
       </c>
       <c r="F36" t="n">
-        <v>2.8515386</v>
+        <v>4.1266368e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.01229157086</v>
+        <v>0.06863096</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06863096</v>
+        <v>1.8495547</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8495547</v>
+        <v>1.9136132e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.035550547874</v>
+        <v>0.1813101466666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1813101466666667</v>
+        <v>2.6843831</v>
       </c>
       <c r="F38" t="n">
-        <v>2.6843831</v>
+        <v>5.0554081e-06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.031721041758</v>
+        <v>0.1298293533333333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1298293533333333</v>
+        <v>3.0127676</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0127676</v>
+        <v>3.6199868e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.00872188755</v>
+        <v>0.03944384733333333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03944384733333333</v>
+        <v>1.8296605</v>
       </c>
       <c r="F40" t="n">
-        <v>1.8296605</v>
+        <v>1.0997991e-06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.04020510830100001</v>
+        <v>0.21448576</v>
       </c>
       <c r="E41" t="n">
-        <v>0.21448576</v>
+        <v>2.7504609</v>
       </c>
       <c r="F41" t="n">
-        <v>2.7504609</v>
+        <v>5.9804321e-06</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.016213325982</v>
+        <v>0.02099626733333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02099626733333333</v>
+        <v>2.401601</v>
       </c>
       <c r="F42" t="n">
-        <v>2.401601</v>
+        <v>5.8543165e-07</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02248047242499999</v>
+        <v>0.02741435933333334</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02741435933333334</v>
+        <v>2.6755028</v>
       </c>
       <c r="F43" t="n">
-        <v>2.6755028</v>
+        <v>7.6438509e-07</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.02094202647</v>
+        <v>0.1203623</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1203623</v>
+        <v>2.1443629</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1443629</v>
+        <v>3.3560203e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.02331817607</v>
+        <v>0.13845878</v>
       </c>
       <c r="E45" t="n">
-        <v>0.13845878</v>
+        <v>1.9366547</v>
       </c>
       <c r="F45" t="n">
-        <v>1.9366547</v>
+        <v>3.8605982e-06</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.025211999131</v>
+        <v>0.07137552666666667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07137552666666667</v>
+        <v>2.8066416</v>
       </c>
       <c r="F46" t="n">
-        <v>2.8066416</v>
+        <v>1.990139e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.02025011788</v>
+        <v>0.1172330666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1172330666666667</v>
+        <v>1.9709216</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9709216</v>
+        <v>3.268769e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.019921270302</v>
+        <v>0.1121204533333333</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1121204533333333</v>
+        <v>2.0707889</v>
       </c>
       <c r="F48" t="n">
-        <v>2.0707889</v>
+        <v>3.1262157e-06</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.00705060215</v>
+        <v>0.03249447533333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03249447533333333</v>
+        <v>1.7006174</v>
       </c>
       <c r="F49" t="n">
-        <v>1.7006174</v>
+        <v>9.0603219e-07</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0113294151</v>
+        <v>0.05036927333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05036927333333333</v>
+        <v>2.1471053</v>
       </c>
       <c r="F50" t="n">
-        <v>2.1471053</v>
+        <v>1.404429e-06</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.006821520919999999</v>
+        <v>0.02462744933333333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02462744933333333</v>
+        <v>1.852289</v>
       </c>
       <c r="F51" t="n">
-        <v>1.852289</v>
+        <v>6.8667864e-07</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.023474183901</v>
+        <v>0.13670032</v>
       </c>
       <c r="E52" t="n">
-        <v>0.13670032</v>
+        <v>2.0785569</v>
       </c>
       <c r="F52" t="n">
-        <v>2.0785569</v>
+        <v>3.8115676e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02014090473</v>
+        <v>0.11035054</v>
       </c>
       <c r="E53" t="n">
-        <v>0.11035054</v>
+        <v>2.005956</v>
       </c>
       <c r="F53" t="n">
-        <v>2.005956</v>
+        <v>3.0768659e-06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.035226603427</v>
+        <v>0.2202320466666667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2202320466666667</v>
+        <v>2.6961757</v>
       </c>
       <c r="F54" t="n">
-        <v>2.6961757</v>
+        <v>6.1406538e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.01238209566</v>
+        <v>0.06686027333333334</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06686027333333334</v>
+        <v>1.7382129</v>
       </c>
       <c r="F55" t="n">
-        <v>1.7382129</v>
+        <v>1.8642419e-06</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.020246889888</v>
+        <v>0.09003700666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09003700666666667</v>
+        <v>2.1456263</v>
       </c>
       <c r="F56" t="n">
-        <v>2.1456263</v>
+        <v>2.5104706e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.022313579268</v>
+        <v>0.03378822066666667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03378822066666667</v>
+        <v>2.7030978</v>
       </c>
       <c r="F57" t="n">
-        <v>2.7030978</v>
+        <v>9.4210525e-07</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.020583675959</v>
+        <v>0.06658379800000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06658379800000001</v>
+        <v>2.3856856</v>
       </c>
       <c r="F58" t="n">
-        <v>2.3856856</v>
+        <v>1.856533e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.017953057843</v>
+        <v>0.0686155</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0686155</v>
+        <v>2.0807151</v>
       </c>
       <c r="F59" t="n">
-        <v>2.0807151</v>
+        <v>1.9131821e-06</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.009503350899999999</v>
+        <v>0.004736821266666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004736821266666667</v>
+        <v>1.8870837</v>
       </c>
       <c r="F60" t="n">
-        <v>1.8870837</v>
+        <v>1.3207515e-07</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.011108851188</v>
+        <v>0.0076175</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0076175</v>
+        <v>1.9316097</v>
       </c>
       <c r="F61" t="n">
-        <v>1.9316097</v>
+        <v>2.1239612e-07</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2332,5 +2377,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>